--- a/project/env_tomo/excel/oscem_schemas_env_tomo.xlsx
+++ b/project/env_tomo/excel/oscem_schemas_env_tomo.xlsx
@@ -32,8 +32,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="23" state="visible" r:id="rId23"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Funder" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDatasetBase" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDatasetEnv" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDatasetEnv" sheetId="26" state="visible" r:id="rId26"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1364,7 +1363,74 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>increment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1381,31 +1447,218 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>acquisition</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>instrument</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>sample</t>
+          <t>x_min</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>x_max</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>y_min</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>organizational</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>y_max</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>nominal_magnification</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>calibrated_magnification</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>holder</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>holder_cryogen</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>temperature_range</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>microscope_software</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>detector</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>detector_mode</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>dose_per_movie</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>energy_filter</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>image_size</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>date_time</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>cryogen</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>grids_imaged</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>images_generated</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>binning_camera</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>specialist_optics</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>beamshift</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>beamtilt</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>imageshift</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>gainref_flip_rotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1422,285 +1675,26 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>increment</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>height</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>width</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>x_min</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>x_max</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>y_min</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>y_max</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AA1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>nominal_defocus</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>calibrated_defocus</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>nominal_magnification</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>calibrated_magnification</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>holder</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>holder_cryogen</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>temperature_range</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>microscope_software</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>detector</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>detector_mode</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>dose_per_movie</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>energy_filter</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>image_size</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>date_time</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>exposure_time</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>cryogen</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>frames_per_movie</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>grids_imaged</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>images_generated</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>binning_camera</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>pixel_size</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>specialist_optics</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>beamshift</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>beamtilt</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>imageshift</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>beamtiltgroups</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>gainref_flip_rotate</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>used</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>width_energy_filter</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1717,42 +1711,6 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>used</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>width</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
           <t>phaseplate</t>
         </is>
       </c>

--- a/project/env_tomo/excel/oscem_schemas_env_tomo.xlsx
+++ b/project/env_tomo/excel/oscem_schemas_env_tomo.xlsx
@@ -13,26 +13,27 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageSize" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BoundingBox2D" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acquisition" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnergyFilter" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecialistOptics" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Phaseplate" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SphericalAberrationCorrector" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChromaticAberrationCorrector" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instrument" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleEnv" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecimenEnv" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Freezing" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thinning" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TomogramFeatures" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TiltAngle" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AcquisitionTomo" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Organizational" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Funder" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDatasetEnv" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Descriptors" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acquisition" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnergyFilter" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecialistOptics" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Phaseplate" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SphericalAberrationCorrector" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChromaticAberrationCorrector" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instrument" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleEnv" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecimenEnv" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Freezing" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thinning" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TomogramFeatures" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TiltAngle" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AcquisitionTomo" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Organizational" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Funder" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDatasetEnv" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,6 +457,42 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>phaseplate</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>spherical_aberration_corrector</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>chromatic_aberration_corrector</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -481,7 +518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -512,7 +549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -543,7 +580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -599,7 +636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -640,7 +677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -691,7 +728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -752,7 +789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -798,7 +835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -839,7 +876,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -875,38 +943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1072,7 +1109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1108,7 +1145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1154,7 +1191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1230,7 +1267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1281,7 +1318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1322,7 +1359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1508,6 +1545,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>descriptor_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>descriptor_thing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1658,7 +1726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1692,40 +1760,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>phaseplate</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>spherical_aberration_corrector</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>chromatic_aberration_corrector</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/project/env_tomo/excel/oscem_schemas_env_tomo.xlsx
+++ b/project/env_tomo/excel/oscem_schemas_env_tomo.xlsx
@@ -9,31 +9,34 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Any" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Range" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Series" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageSize" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BoundingBox2D" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Descriptors" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acquisition" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnergyFilter" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecialistOptics" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Phaseplate" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SphericalAberrationCorrector" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChromaticAberrationCorrector" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instrument" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleEnv" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecimenEnv" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Freezing" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thinning" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TomogramFeatures" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TiltAngle" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AcquisitionTomo" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Organizational" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Funder" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDatasetEnv" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RangeSI" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Series" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageSize" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BoundingBox2D" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BoundingBox2DSI" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantitySI" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Descriptors" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acquisition" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnergyFilter" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecialistOptics" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Phaseplate" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SphericalAberrationCorrector" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChromaticAberrationCorrector" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instrument" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleEnv" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecimenEnv" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Freezing" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thinning" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TomogramFeatures" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TiltAngle" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AcquisitionTomo" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Organizational" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Funder" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDatasetEnv" sheetId="30" state="visible" r:id="rId30"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,6 +460,193 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>descriptor_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>descriptor_thing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>nominal_magnification</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>calibrated_magnification</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>holder</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>holder_cryogen</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>temperature_range</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>microscope_software</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>detector</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>detector_mode</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>dose_per_movie</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>energy_filter</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>image_size</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>date_time</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>cryogen</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>grids_imaged</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>images_generated</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>binning_camera</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>specialist_optics</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>beamshift</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>beamtilt</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>imageshift</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>gainref_flip_rotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -468,6 +658,42 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>used</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>width_energy_filter</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>phaseplate</t>
         </is>
       </c>
@@ -487,7 +713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -518,7 +744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -549,7 +775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -580,7 +806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -636,7 +862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -677,7 +903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -728,7 +954,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -789,7 +1046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -835,7 +1092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -876,27 +1133,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>increment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>maximal</t>
         </is>
@@ -907,7 +1169,173 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AC1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>tilt_axis_angle</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tilt_angle</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>nominal_magnification</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>calibrated_magnification</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>holder</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>holder_cryogen</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>temperature_range</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>microscope_software</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>detector</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>detector_mode</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>dose_per_movie</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>energy_filter</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>image_size</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>date_time</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>cryogen</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>grids_imaged</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>images_generated</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>binning_camera</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>specialist_optics</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>beamshift</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>beamtilt</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>imageshift</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>gainref_flip_rotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -924,264 +1352,62 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>increment</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AC1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>tilt_axis_angle</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>tilt_angle</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>nominal_defocus</t>
+          <t>grants</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>funder</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>first_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>work_status</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>calibrated_defocus</t>
+          <t>email</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>nominal_magnification</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>calibrated_magnification</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>holder</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>holder_cryogen</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>temperature_range</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>microscope_software</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>detector</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>detector_mode</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>dose_per_movie</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>energy_filter</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>image_size</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>date_time</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>exposure_time</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>cryogen</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>frames_per_movie</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>grids_imaged</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>images_generated</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>binning_camera</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>pixel_size</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>specialist_optics</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>beamshift</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>beamtilt</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>imageshift</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>beamtiltgroups</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>gainref_flip_rotate</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>authors</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>funder</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>first_name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>work_status</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
           <t>work_phone</t>
         </is>
       </c>
@@ -1191,7 +1417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1267,7 +1493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1318,7 +1544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1359,7 +1585,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>minimal_si</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>maximal_si</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1400,7 +1657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1436,7 +1693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1467,7 +1724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1508,7 +1765,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>x_min_si</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>x_max_si</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>y_min_si</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>y_max_si</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1539,221 +1837,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>descriptor_name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>descriptor_thing</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AA1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>nominal_defocus</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>calibrated_defocus</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>nominal_magnification</t>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>si_value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>si_unit</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>unit</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>calibrated_magnification</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>holder</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>holder_cryogen</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>temperature_range</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>microscope_software</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>detector</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>detector_mode</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>dose_per_movie</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>energy_filter</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>image_size</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>date_time</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>exposure_time</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>cryogen</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>frames_per_movie</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>grids_imaged</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>images_generated</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>binning_camera</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>pixel_size</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>specialist_optics</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>beamshift</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>beamtilt</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>imageshift</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>beamtiltgroups</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>gainref_flip_rotate</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>used</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>width_energy_filter</t>
+          <t>value</t>
         </is>
       </c>
     </row>

--- a/project/env_tomo/excel/oscem_schemas_env_tomo.xlsx
+++ b/project/env_tomo/excel/oscem_schemas_env_tomo.xlsx
@@ -1854,12 +1854,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>si_value</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>si_unit</t>
+          <t>valueSI</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unitSI</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">

--- a/project/env_tomo/excel/oscem_schemas_env_tomo.xlsx
+++ b/project/env_tomo/excel/oscem_schemas_env_tomo.xlsx
@@ -1199,7 +1199,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>last_name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>last_name</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -1490,12 +1490,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>height</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>width</t>
+          <t>height_im</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>width_im</t>
         </is>
       </c>
     </row>

--- a/project/env_tomo/excel/oscem_schemas_env_tomo.xlsx
+++ b/project/env_tomo/excel/oscem_schemas_env_tomo.xlsx
@@ -1,40 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Any" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Range" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Series" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImageSize" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BoundingBox2D" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantitySI" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Descriptors" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Acquisition" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EnergyFilter" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecialistOptics" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Phaseplate" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SphericalAberrationCorrector" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ChromaticAberrationCorrector" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instrument" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SampleEnv" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpecimenEnv" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Freezing" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thinning" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TomogramFeatures" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TiltAngle" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AcquisitionTomo" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Organizational" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Person" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Author" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grant" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Funder" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EMDatasetEnv" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Any" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Range" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Series" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ImageSize" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="BoundingBox2D" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="QuantityValue" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="QuantitySI" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Descriptors" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Acquisition" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="EnergyFilter" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="SpecialistOptics" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Phaseplate" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="SphericalAberrationCorrector" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ChromaticAberrationCorrector" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Detector" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Instrument" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Microscope" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="SampleEnv" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="SpecimenEnv" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Freezing" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Thinning" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="TomogramFeatures" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="TiltAngle" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="AcquisitionTomo" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Organizational" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Person" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Author" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Grant" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Funder" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="EMDatasetEnv" sheetId="30" state="visible" r:id="rId30"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -623,7 +625,48 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>mode</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>dispersion</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>collection_angle</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,13 +710,54 @@
           <t>cs</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>operating_mode</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>beam_convergence</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>manufacturer</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -714,7 +798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -765,7 +849,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -826,7 +941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -872,27 +987,73 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>cellular_features</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>organelles</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>main_target</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>details_tomo</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>increment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
         <is>
           <t>minimal</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>maximal</t>
         </is>
@@ -903,48 +1064,173 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>cellular_features</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>organelles</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>main_target</t>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AC1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>tilt_axis_angle</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tilt_angle</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>screen_current</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>details_tomo</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>nominal_magnification</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>calibrated_magnification</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>holder</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>holder_cryogen</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>temperature_range</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>microscope_software</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>detectors</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>dose_per_movie</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>energy_filter</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>image_size</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>date_time</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>cryogen</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>grids_imaged</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>images_generated</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>binning_camera</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>specialist_optics</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>beamshift</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>beamtilt</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>imageshift</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>gainref_flip_rotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -961,336 +1247,134 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>increment</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AC1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>tilt_axis_angle</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>tilt_angle</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>nominal_defocus</t>
+          <t>grants</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>funder</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>family_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>given_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>job_title</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>calibrated_defocus</t>
+          <t>email</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>nominal_magnification</t>
+          <t>telephone</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>orcid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name_org</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>type_org</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>calibrated_magnification</t>
+          <t>family_name</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>holder</t>
+          <t>given_name</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>holder_cryogen</t>
+          <t>job_title</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>temperature_range</t>
+          <t>email</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>microscope_software</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>detector</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>detector_mode</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>dose_per_movie</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>energy_filter</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>image_size</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>date_time</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>exposure_time</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>cryogen</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>frames_per_movie</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>grids_imaged</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>images_generated</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>binning_camera</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>pixel_size</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>specialist_optics</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>beamshift</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>beamtilt</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>imageshift</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>beamtiltgroups</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>gainref_flip_rotate</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>authors</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>funder</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>first_name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>work_status</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>work_phone</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>orcid</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>country</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>name_org</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>type_org</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>first_name</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>work_status</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>work_phone</t>
+          <t>telephone</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1355,7 +1439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1396,7 +1480,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>increment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1437,42 +1557,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>increment</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1665,52 +1749,52 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>screen_current</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>nominal_defocus</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>calibrated_defocus</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>nominal_magnification</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>calibrated_magnification</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>holder</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>holder_cryogen</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>temperature_range</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>microscope_software</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>detector</t>
-        </is>
-      </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>detector_mode</t>
+          <t>detectors</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">

--- a/project/env_tomo/excel/oscem_schemas_env_tomo.xlsx
+++ b/project/env_tomo/excel/oscem_schemas_env_tomo.xlsx
@@ -16,27 +16,31 @@
     <sheet name="QuantitySI" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Descriptors" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Acquisition" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="EnergyFilter" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="SpecialistOptics" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Phaseplate" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="SphericalAberrationCorrector" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ChromaticAberrationCorrector" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Detector" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Instrument" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Microscope" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="SampleEnv" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="SpecimenEnv" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Freezing" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Thinning" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="TomogramFeatures" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="TiltAngle" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="AcquisitionTomo" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Organizational" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Person" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Author" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Grant" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="Funder" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="EMDatasetEnv" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="AcquisitionSpa" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="EnergyFilter" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="SpecialistOptics" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Phaseplate" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="SphericalAberrationCorrector" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="ChromaticAberrationCorrector" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Detector" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Instrument" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Microscope" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="SampleEnv" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SpecimenEnv" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Freezing" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Thinning" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="TomogramFeatures" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="TiltAngle" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="AcquisitionTomo" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="AcquisitionSubTomo" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="AcquisitionEnvTomo" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="AcquisitionCelTomo" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Organizational" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Person" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="Author" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="Grant" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="Funder" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="EMDatasetEnv" sheetId="34" state="visible" r:id="rId34"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,6 +464,167 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AB1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>technique</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>screen_current</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>nominal_magnification</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>calibrated_magnification</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>holder</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>holder_cryogen</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>temperature_range</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>microscope_software</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>detectors</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>dose_per_movie</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>energy_filter</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>image_size</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>date_time</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>cryogen</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>grids_imaged</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>images_generated</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>binning_camera</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>specialist_optics</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>beamshift</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>beamtilt</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>imageshift</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>gainref_flip_rotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -490,7 +655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -526,7 +691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -557,7 +722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -588,7 +753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -619,7 +784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -660,7 +825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -726,7 +891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -757,7 +922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -798,7 +963,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -849,38 +1045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>minimal</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -941,7 +1106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -987,7 +1152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1028,7 +1193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1064,13 +1229,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AC1"/>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1091,135 +1256,653 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>technique</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>screen_current</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>nominal_magnification</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>calibrated_magnification</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>holder</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>holder_cryogen</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>temperature_range</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>microscope_software</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>detectors</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>dose_per_movie</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>energy_filter</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>image_size</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>date_time</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>cryogen</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>grids_imaged</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>images_generated</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>binning_camera</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>specialist_optics</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>beamshift</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>beamtilt</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>imageshift</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>gainref_flip_rotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AD1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>tilt_axis_angle</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tilt_angle</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>technique</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>screen_current</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>nominal_defocus</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>nominal_magnification</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>calibrated_magnification</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>holder</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>holder_cryogen</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>temperature_range</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>microscope_software</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>detectors</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>dose_per_movie</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>energy_filter</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>image_size</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>date_time</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>cryogen</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>grids_imaged</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>images_generated</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>binning_camera</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>specialist_optics</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>beamshift</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>beamtilt</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>imageshift</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>gainref_flip_rotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AD1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>tilt_axis_angle</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tilt_angle</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>technique</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>screen_current</t>
+        </is>
+      </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>calibrated_defocus</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>nominal_magnification</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>calibrated_magnification</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>holder</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>holder_cryogen</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>temperature_range</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>microscope_software</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>detectors</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>dose_per_movie</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>energy_filter</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>image_size</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>date_time</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>exposure_time</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>cryogen</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>frames_per_movie</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>grids_imaged</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>images_generated</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>binning_camera</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>pixel_size</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>specialist_optics</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>beamshift</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>beamtilt</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>imageshift</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>beamtiltgroups</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>gainref_flip_rotate</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AD1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>tilt_axis_angle</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tilt_angle</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>technique</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>screen_current</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>nominal_defocus</t>
+        </is>
+      </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>calibrated_defocus</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>nominal_magnification</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>calibrated_magnification</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>holder</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>holder_cryogen</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>temperature_range</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>microscope_software</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>detectors</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>dose_per_movie</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>energy_filter</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>image_size</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>date_time</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>exposure_time</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>cryogen</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>frames_per_movie</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>grids_imaged</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>images_generated</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>binning_camera</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>pixel_size</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>specialist_optics</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>beamshift</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>beamtilt</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>imageshift</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>beamtiltgroups</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>gainref_flip_rotate</t>
         </is>
@@ -1230,7 +1913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1266,7 +1949,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>increment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>maximal</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1312,7 +2031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1388,7 +2107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1439,7 +2158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1480,43 +2199,79 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>increment</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>minimal</t>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>acquisition</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>instrument</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>maximal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>organizational</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1533,31 +2288,31 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>acquisition</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>instrument</t>
+          <t>x_min</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>x_max</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>y_min</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>organizational</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>y_max</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1574,21 +2329,21 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>height</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>width</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1605,31 +2360,31 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>x_min</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>x_max</t>
+          <t>valueSI</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unitSI</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>y_min</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>y_max</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1646,238 +2401,171 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>valueSI</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>unitSI</t>
+          <t>descriptor_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>descriptor_thing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>technique</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>screen_current</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>nominal_defocus</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>descriptor_name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>descriptor_thing</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AA1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>screen_current</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>nominal_defocus</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
           <t>calibrated_defocus</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>nominal_magnification</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>calibrated_magnification</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>holder</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>holder_cryogen</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>temperature_range</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>microscope_software</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>detectors</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>dose_per_movie</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>energy_filter</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>image_size</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>date_time</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>exposure_time</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>cryogen</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>frames_per_movie</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>grids_imaged</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>images_generated</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>binning_camera</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pixel_size</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>specialist_optics</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>beamshift</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>beamtilt</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>imageshift</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>beamtiltgroups</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>gainref_flip_rotate</t>
         </is>
